--- a/Reports/AreDifferent/decryption_hotWater_byHouse/decryption_hotWater.xlsx
+++ b/Reports/AreDifferent/decryption_hotWater_byHouse/decryption_hotWater.xlsx
@@ -700,8 +700,8 @@
   </sheetPr>
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -958,6 +958,9 @@
       <c r="Y6" s="25" t="s">
         <v>20</v>
       </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:26">
       <c r="Q7" s="4" t="s">
